--- a/xls/guildUpCouConfig.xlsx
+++ b/xls/guildUpCouConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="27765" windowHeight="13650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="代对表=" sheetId="2" r:id="rId1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -503,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,16 +566,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>1200000</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -584,19 +584,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>1001</v>
+        <v>2000000</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="3"/>
     </row>
@@ -605,19 +605,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>1002</v>
+        <v>4000000</v>
       </c>
       <c r="E5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -626,19 +626,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1002</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
-        <v>1003</v>
+        <v>6000000</v>
       </c>
       <c r="E6" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -647,19 +647,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>1003</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>1004</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -668,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
         <v>32</v>
       </c>
-      <c r="C8" s="3">
-        <v>1004</v>
-      </c>
       <c r="D8" s="3">
-        <v>1005</v>
+        <v>35000000</v>
       </c>
       <c r="E8" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F8" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -689,19 +689,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>1005</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3">
-        <v>1006</v>
+        <v>80000000</v>
       </c>
       <c r="E9" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3"/>
     </row>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G10" s="3"/>
     </row>
